--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1524188.957621379</v>
+        <v>1605839.477985512</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083134</v>
+        <v>278692.0725916865</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5959647.450732248</v>
+        <v>6506213.476825042</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -677,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.5039400136237</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>299.1603375855916</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,10 +816,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>25.3684700542034</v>
       </c>
       <c r="D4" t="n">
         <v>164.2192128704925</v>
@@ -865,25 +867,25 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>39.88277234054614</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,19 +901,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>222.6309997171388</v>
       </c>
       <c r="H5" t="n">
-        <v>70.75434793228362</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1065,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1102,22 +1104,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>188.9372674261655</v>
+        <v>239.3541787332789</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>371.5824951368842</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
@@ -1142,7 +1144,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -1199,7 +1201,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>353.7491828201684</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1348,13 +1350,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>61.23284287475814</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>125.1716544454846</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>280.2378638008595</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869773004</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1382,13 +1384,13 @@
         <v>423.5887552948844</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629688</v>
       </c>
       <c r="H11" t="n">
         <v>286.238853011216</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791314265</v>
+        <v>0.41262147913147</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800139</v>
+        <v>82.81535507800143</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W11" t="n">
         <v>400.8069000430771</v>
@@ -1525,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1591,10 +1593,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>45.76594660770901</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>2.292363805512852</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1609,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y14" t="n">
-        <v>262.7083076934547</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1762,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
         <v>168.0604237117701</v>
@@ -1783,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,16 +1821,16 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>219.2875345484105</v>
       </c>
       <c r="V16" t="n">
-        <v>272.3369184882375</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>225.1454739790328</v>
@@ -1853,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>423.588755294885</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1895,7 +1897,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -2005,7 +2007,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>24.62703520776627</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>275.6486707394257</v>
+        <v>67.42894579208244</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2081,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2090,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
@@ -2290,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2305,7 +2307,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>16.9257490316895</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="23">
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>275.6486707394257</v>
+        <v>27.0795002619478</v>
       </c>
       <c r="V25" t="n">
-        <v>163.6395778340019</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2730,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>29.10461178738926</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2770,7 +2772,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>193.1657375857779</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2950,7 +2952,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
         <v>164.2192128704925</v>
@@ -2995,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>275.6486707394257</v>
+        <v>153.2006427344203</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>53.06991172717014</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3199,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>104.6990987647609</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3253,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3439,7 +3441,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>87.77334973307141</v>
@@ -3481,10 +3483,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>35.5167825707945</v>
       </c>
       <c r="W37" t="n">
-        <v>166.3197703738366</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556917</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
         <v>256.6300796561533</v>
@@ -3676,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -3712,13 +3714,13 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>140.4342819615944</v>
       </c>
       <c r="U40" t="n">
-        <v>27.07950026194645</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>297.6961842545521</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>423.5887552948854</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
         <v>0.4126214791313976</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3803,7 +3805,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>240.2737862279055</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3958,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>146.8581123645739</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -3980,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
         <v>0.4126214791313976</v>
@@ -4025,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>58.59995466187849</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4141,19 +4143,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>83.42661545872177</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,10 +4191,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>260.4356504767625</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574.7486531912377</v>
+        <v>949.3539213779165</v>
       </c>
       <c r="C2" t="n">
-        <v>540.6465844150651</v>
+        <v>520.7722471151849</v>
       </c>
       <c r="D2" t="n">
-        <v>508.7772036299137</v>
+        <v>488.9028663300335</v>
       </c>
       <c r="E2" t="n">
-        <v>479.0428628286129</v>
+        <v>459.1685255287327</v>
       </c>
       <c r="F2" t="n">
-        <v>455.2158372782247</v>
+        <v>435.3414999783445</v>
       </c>
       <c r="G2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>53.81800590148855</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>488.6559039815464</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
-        <v>632.7278666362198</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="N2" t="n">
-        <v>632.7278666362198</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>2449.993599304466</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>2191.908811411917</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1829.291861345744</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1828.476810797181</v>
+        <v>1395.001270903052</v>
       </c>
       <c r="X2" t="n">
-        <v>1409.334347376492</v>
+        <v>975.8588074823629</v>
       </c>
       <c r="Y2" t="n">
-        <v>1001.048223676146</v>
+        <v>971.6130878224203</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>559.5729615199214</v>
+        <v>540.1154135929012</v>
       </c>
       <c r="C3" t="n">
-        <v>453.1165003565636</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D3" t="n">
-        <v>358.0262115031169</v>
+        <v>338.5686635760967</v>
       </c>
       <c r="E3" t="n">
-        <v>263.9057968300706</v>
+        <v>244.4482489030504</v>
       </c>
       <c r="F3" t="n">
-        <v>180.5219584462322</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G3" t="n">
-        <v>95.13686871241609</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862856</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>377.9595414948409</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>1038.799596036619</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>1038.799596036619</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>1038.799596036619</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1038.799596036619</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1038.799596036619</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1058.729261281022</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
-        <v>1599.468199913098</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R3" t="n">
-        <v>1716.640978007438</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S3" t="n">
-        <v>1653.185540455821</v>
+        <v>1633.7279925288</v>
       </c>
       <c r="T3" t="n">
-        <v>1523.006896786422</v>
+        <v>1503.549348859402</v>
       </c>
       <c r="U3" t="n">
-        <v>1346.67034978639</v>
+        <v>1327.21280185937</v>
       </c>
       <c r="V3" t="n">
-        <v>1147.55283184839</v>
+        <v>1128.09528392137</v>
       </c>
       <c r="W3" t="n">
-        <v>962.2300775815838</v>
+        <v>942.7725296545636</v>
       </c>
       <c r="X3" t="n">
-        <v>807.3626418204638</v>
+        <v>787.9050938934436</v>
       </c>
       <c r="Y3" t="n">
-        <v>680.8768625996845</v>
+        <v>661.4193146726643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>966.0648349231828</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>940.4401176967148</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>774.5621248982375</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>604.8041211489747</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>428.0970671107308</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>688.8848573262783</v>
       </c>
       <c r="M4" t="n">
-        <v>1292.433105213328</v>
+        <v>1108.937756271182</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="O4" t="n">
-        <v>2154.361157596754</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="P4" t="n">
-        <v>2501.868051567096</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
-        <v>2670.060826431428</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>2648.6430051368</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>2608.357376509985</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>2362.477930088441</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="U4" t="n">
-        <v>2084.044929341546</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="V4" t="n">
-        <v>1797.089421211977</v>
+        <v>1238.091239336891</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>966.0648349231828</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>966.0648349231828</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>966.0648349231828</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1052.900668210748</v>
+        <v>1896.513156247426</v>
       </c>
       <c r="C5" t="n">
-        <v>614.758195394171</v>
+        <v>1458.370683430849</v>
       </c>
       <c r="D5" t="n">
-        <v>582.8888146090196</v>
+        <v>1022.460898605293</v>
       </c>
       <c r="E5" t="n">
-        <v>149.1140697673148</v>
+        <v>992.7265578039926</v>
       </c>
       <c r="F5" t="n">
-        <v>125.2870442169266</v>
+        <v>564.8591282132004</v>
       </c>
       <c r="G5" t="n">
-        <v>125.2870442169266</v>
+        <v>339.9793305191208</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>50.84917596233709</v>
       </c>
       <c r="I5" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J5" t="n">
-        <v>53.40121652862856</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>53.40121652862856</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>53.40121652862856</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>53.40121652862856</v>
+        <v>1109.787858087174</v>
       </c>
       <c r="N5" t="n">
-        <v>714.2412710704069</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1181.865694717424</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>1805.966478762203</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2352.465264720798</v>
       </c>
       <c r="R5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2301.552102346893</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2301.552102346893</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>1938.93515228072</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>1938.120101732157</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>1923.018042351872</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.159834655251</v>
+        <v>1918.772322691929</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>559.5729615199214</v>
+        <v>556.6041315807698</v>
       </c>
       <c r="C6" t="n">
-        <v>453.1165003565636</v>
+        <v>450.1476704174121</v>
       </c>
       <c r="D6" t="n">
-        <v>358.0262115031169</v>
+        <v>355.0573815639654</v>
       </c>
       <c r="E6" t="n">
-        <v>263.9057968300706</v>
+        <v>260.9369668909191</v>
       </c>
       <c r="F6" t="n">
-        <v>180.5219584462322</v>
+        <v>177.5531285070807</v>
       </c>
       <c r="G6" t="n">
-        <v>95.13686871241609</v>
+        <v>92.16803877326461</v>
       </c>
       <c r="H6" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="I6" t="n">
-        <v>53.40121652862856</v>
+        <v>76.49605974993469</v>
       </c>
       <c r="J6" t="n">
-        <v>53.40121652862856</v>
+        <v>401.054384716147</v>
       </c>
       <c r="K6" t="n">
-        <v>53.40121652862856</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>53.40121652862856</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="M6" t="n">
-        <v>53.40121652862856</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="N6" t="n">
-        <v>53.40121652862856</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="O6" t="n">
-        <v>397.8892067392439</v>
+        <v>1025.155168760926</v>
       </c>
       <c r="P6" t="n">
-        <v>1058.729261281022</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
-        <v>1599.468199913098</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1716.640978007438</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1653.185540455821</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1523.006896786422</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1346.67034978639</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1147.55283184839</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>962.2300775815838</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>807.3626418204638</v>
+        <v>804.3938118813122</v>
       </c>
       <c r="Y6" t="n">
-        <v>680.8768625996845</v>
+        <v>677.908032660533</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.7523231022661</v>
+        <v>1129.490547201358</v>
       </c>
       <c r="C7" t="n">
-        <v>783.1906115854911</v>
+        <v>956.9288356845833</v>
       </c>
       <c r="D7" t="n">
-        <v>617.3126187870138</v>
+        <v>791.050842886106</v>
       </c>
       <c r="E7" t="n">
-        <v>447.554615037751</v>
+        <v>621.2928391368433</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>281.9633400635787</v>
+        <v>278.9945101244272</v>
       </c>
       <c r="H7" t="n">
-        <v>142.0611657539532</v>
+        <v>139.0923358148017</v>
       </c>
       <c r="I7" t="n">
-        <v>53.40121652862856</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="J7" t="n">
-        <v>139.9809016933184</v>
+        <v>50.43238658947709</v>
       </c>
       <c r="K7" t="n">
-        <v>414.739356264454</v>
+        <v>266.2978593068805</v>
       </c>
       <c r="L7" t="n">
-        <v>832.9492380324151</v>
+        <v>684.5077410748416</v>
       </c>
       <c r="M7" t="n">
-        <v>1292.433105213328</v>
+        <v>1143.991608255754</v>
       </c>
       <c r="N7" t="n">
-        <v>1734.691908370973</v>
+        <v>1586.250411413399</v>
       </c>
       <c r="O7" t="n">
-        <v>2154.361157596754</v>
+        <v>2005.919660639181</v>
       </c>
       <c r="P7" t="n">
-        <v>2501.868051567096</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>2670.060826431428</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>2648.6430051368</v>
+        <v>2500.201508179226</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2340.960139477223</v>
       </c>
       <c r="T7" t="n">
-        <v>2457.797280463905</v>
+        <v>2099.18824176684</v>
       </c>
       <c r="U7" t="n">
-        <v>2179.364279717011</v>
+        <v>1820.755241019946</v>
       </c>
       <c r="V7" t="n">
-        <v>1892.408771587441</v>
+        <v>1820.755241019946</v>
       </c>
       <c r="W7" t="n">
-        <v>1620.382367173733</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="X7" t="n">
-        <v>1374.990612507145</v>
+        <v>1548.728836606237</v>
       </c>
       <c r="Y7" t="n">
-        <v>1147.570941821253</v>
+        <v>1321.309165920346</v>
       </c>
     </row>
     <row r="8">
@@ -4778,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2190.910269352854</v>
+        <v>1786.86986531245</v>
       </c>
       <c r="C8" t="n">
-        <v>1752.767796536277</v>
+        <v>1348.727392495873</v>
       </c>
       <c r="D8" t="n">
-        <v>1316.858011710722</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E8" t="n">
-        <v>883.0832668690169</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F8" t="n">
         <v>455.2158372782247</v>
@@ -4802,25 +4804,25 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>1149.495958523325</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>1810.336013065103</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>1810.336013065103</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="O8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="Q8" t="n">
         <v>2500.906761678371</v>
@@ -4847,7 +4849,7 @@
         <v>2570.491842686417</v>
       </c>
       <c r="Y8" t="n">
-        <v>2566.246123026474</v>
+        <v>2213.169435797358</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4886,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
         <v>1599.468199913098</v>
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1132.45937714051</v>
+        <v>966.5813843420327</v>
       </c>
       <c r="C10" t="n">
-        <v>959.897665623735</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4996,16 +4998,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1903.237832827208</v>
       </c>
       <c r="W10" t="n">
-        <v>1678.133681136788</v>
+        <v>1631.211428413499</v>
       </c>
       <c r="X10" t="n">
-        <v>1551.697666545389</v>
+        <v>1385.819673746912</v>
       </c>
       <c r="Y10" t="n">
-        <v>1324.277995859497</v>
+        <v>1158.40000306102</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1490.384067312716</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>1207.315518018919</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D11" t="n">
-        <v>1207.315518018919</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>773.5407731772139</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>345.6733435864215</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>345.6733435864215</v>
+        <v>391.8077842004235</v>
       </c>
       <c r="H11" t="n">
-        <v>56.54318902963767</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096956</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>553.4733308279554</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1248.037526580579</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M11" t="n">
-        <v>1942.601722333202</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N11" t="n">
-        <v>2637.165918085826</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2637.165918085826</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2637.165918085826</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085826</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>2722.668109022719</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>2722.668109022719</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2722.668109022719</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2722.668109022719</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2317.812654433752</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>1898.670191013063</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y11" t="n">
-        <v>1490.384067312716</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723525</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>82.19007281723525</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>82.19007281723525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>82.19007281723525</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>776.7542685698586</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1471.318464322482</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1471.318464322482</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1471.318464322482</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1135.184560268659</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C13" t="n">
-        <v>962.6228487518839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D13" t="n">
-        <v>796.7448559534066</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E13" t="n">
-        <v>626.9868522041439</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F13" t="n">
-        <v>450.2797981659001</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G13" t="n">
-        <v>284.6885231917278</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7863488821023</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>417.4645393926012</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>835.6744211605622</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1295.158288341475</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N13" t="n">
-        <v>1737.41709149912</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O13" t="n">
-        <v>2157.086340724901</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P13" t="n">
-        <v>2504.593234695243</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q13" t="n">
-        <v>2672.786009559576</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R13" t="n">
-        <v>2651.368188264948</v>
+        <v>2697.502628878947</v>
       </c>
       <c r="S13" t="n">
-        <v>2492.126819562944</v>
+        <v>2538.261260176943</v>
       </c>
       <c r="T13" t="n">
-        <v>2246.247373141399</v>
+        <v>2292.381813755399</v>
       </c>
       <c r="U13" t="n">
-        <v>1967.814372394505</v>
+        <v>2013.948813008504</v>
       </c>
       <c r="V13" t="n">
-        <v>1680.858864264935</v>
+        <v>1726.993304878934</v>
       </c>
       <c r="W13" t="n">
-        <v>1408.832459851227</v>
+        <v>1454.966900465226</v>
       </c>
       <c r="X13" t="n">
-        <v>1362.604230954551</v>
+        <v>1209.575145798638</v>
       </c>
       <c r="Y13" t="n">
-        <v>1135.184560268659</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>928.0436173150592</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>489.9011444984826</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>489.9011444984826</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>56.12639965677765</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>56.12639965677765</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>56.12639965677765</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677765</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>491.3810871096956</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>491.3810871096956</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>491.3810871096956</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M14" t="n">
-        <v>491.3810871096956</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N14" t="n">
-        <v>1185.945282862319</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.102936374607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P14" t="n">
-        <v>2090.667132127231</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085826</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U14" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V14" t="n">
-        <v>2443.703032772709</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W14" t="n">
-        <v>2038.847578183742</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>1619.705114763053</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1354.343187799967</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056519</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723525</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K15" t="n">
-        <v>406.7483977834476</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L15" t="n">
-        <v>406.7483977834476</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="M15" t="n">
-        <v>907.6291872886234</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="N15" t="n">
-        <v>1602.193383041247</v>
+        <v>751.6989919312866</v>
       </c>
       <c r="O15" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P15" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>969.3065674701817</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C16" t="n">
-        <v>796.7448559534066</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D16" t="n">
-        <v>796.7448559534066</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E16" t="n">
-        <v>626.9868522041439</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F16" t="n">
-        <v>450.2797981659001</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G16" t="n">
-        <v>284.6885231917278</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677765</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>2672.786009559577</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>2513.544640857574</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.665194436029</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>1989.232193689134</v>
+        <v>2070.879253605493</v>
       </c>
       <c r="V16" t="n">
-        <v>1714.144397236369</v>
+        <v>1783.923745475924</v>
       </c>
       <c r="W16" t="n">
-        <v>1442.117992822661</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="X16" t="n">
-        <v>1196.726238156073</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y16" t="n">
-        <v>969.3065674701817</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5513,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>2011.671098481817</v>
+        <v>1431.851786213077</v>
       </c>
       <c r="M17" t="n">
-        <v>2011.671098481817</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3137.402081918264</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4117.581748488571</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5543,22 +5545,22 @@
         <v>5029.390139722818</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="18">
@@ -5601,19 +5603,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N18" t="n">
-        <v>1336.088111831086</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="O18" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P18" t="n">
-        <v>1336.088111831086</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>811.7546776883914</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C19" t="n">
-        <v>639.1929661716164</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D19" t="n">
-        <v>639.1929661716164</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E19" t="n">
-        <v>469.4349624223536</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F19" t="n">
-        <v>292.7279083841098</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G19" t="n">
-        <v>127.1366334099375</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H19" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5698,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T19" t="n">
-        <v>2313.799635050031</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U19" t="n">
-        <v>2035.366634303136</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V19" t="n">
-        <v>1748.411126173566</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W19" t="n">
-        <v>1476.384721759858</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X19" t="n">
-        <v>1230.99296709327</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y19" t="n">
-        <v>1003.573296407379</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="20">
@@ -5729,13 +5731,13 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D20" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E20" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
         <v>793.2056155771595</v>
@@ -5753,19 +5755,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P20" t="n">
         <v>5113.042013538981</v>
@@ -5938,19 +5940,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="T22" t="n">
-        <v>2473.041003752034</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U22" t="n">
-        <v>2194.608003005139</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V22" t="n">
-        <v>1907.65249487557</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W22" t="n">
-        <v>1635.626090461861</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1390.234335795274</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
         <v>1373.137619601648</v>
@@ -5990,19 +5992,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>1021.77365348828</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2178.821488698831</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135278</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6075,10 +6077,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>751.6989919312866</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.659051657336</v>
+        <v>3435.538389938438</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0973401405612</v>
+        <v>3262.976678421663</v>
       </c>
       <c r="D25" t="n">
-        <v>754.2193473420839</v>
+        <v>3097.098685623185</v>
       </c>
       <c r="E25" t="n">
-        <v>584.4613435928212</v>
+        <v>2927.340681873923</v>
       </c>
       <c r="F25" t="n">
-        <v>407.7542895545774</v>
+        <v>2750.633627835679</v>
       </c>
       <c r="G25" t="n">
-        <v>242.1630145804051</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I25" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J25" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K25" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L25" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M25" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N25" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O25" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P25" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q25" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S25" t="n">
-        <v>2718.920450173579</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T25" t="n">
-        <v>2473.041003752034</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U25" t="n">
-        <v>2194.608003005139</v>
+        <v>4659.150346553181</v>
       </c>
       <c r="V25" t="n">
-        <v>2029.315500142511</v>
+        <v>4372.194838423612</v>
       </c>
       <c r="W25" t="n">
-        <v>1757.289095728803</v>
+        <v>4100.168434009904</v>
       </c>
       <c r="X25" t="n">
-        <v>1511.897341062215</v>
+        <v>3854.776679343317</v>
       </c>
       <c r="Y25" t="n">
-        <v>1284.477670376323</v>
+        <v>3627.357008657425</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C27" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D27" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E27" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F27" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G27" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H27" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R27" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S27" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T27" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U27" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V27" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X27" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y27" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.1554751127505</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C28" t="n">
-        <v>809.5937635959755</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D28" t="n">
-        <v>643.7157707974982</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E28" t="n">
-        <v>473.9577670482354</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F28" t="n">
-        <v>297.2507130099916</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G28" t="n">
-        <v>131.6594380358193</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6411,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.623182457406</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710511</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="29">
@@ -6461,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1021.77365348828</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>2178.821488698831</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N29" t="n">
-        <v>3304.552472135278</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705584</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6543,22 +6545,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>405.0384966383147</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1224.761663117513</v>
       </c>
       <c r="Q30" t="n">
         <v>1765.500601749588</v>
@@ -6595,7 +6597,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1008.757289365886</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C31" t="n">
         <v>1008.757289365886</v>
@@ -6640,31 +6642,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173571</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173571</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471567</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2559.679081471567</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W31" t="n">
-        <v>1673.387333437352</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X31" t="n">
-        <v>1427.995578770765</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y31" t="n">
-        <v>1200.575908084873</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="32">
@@ -6707,10 +6709,10 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3569.079287993933</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
         <v>3569.079287993933</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2538.261260176947</v>
+        <v>2613.163784754629</v>
       </c>
       <c r="T34" t="n">
-        <v>2292.381813755403</v>
+        <v>2367.284338333084</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2088.851337586189</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>1801.895829456619</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1529.869425042911</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1284.477670376323</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6917,7 +6919,7 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009656</v>
       </c>
       <c r="E35" t="n">
         <v>1221.073045167952</v>
@@ -6926,7 +6928,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
         <v>102.6776296436396</v>
@@ -6935,52 +6937,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N35" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O35" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7022,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M36" t="n">
-        <v>1300.985674363279</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N36" t="n">
-        <v>1300.985674363279</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O36" t="n">
         <v>1765.500601749588</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>1041.416826573035</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>868.8551150562604</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>702.9771222577831</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>533.2191185085204</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>356.5120644702766</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7129,16 +7131,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>2013.948813008508</v>
+        <v>1978.07327505821</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1706.046870644502</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1460.655115977914</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1233.235445292023</v>
       </c>
     </row>
     <row r="38">
@@ -7163,7 +7165,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,31 +7174,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>475.2748675296854</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>475.2748675296854</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>475.2748675296854</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>1632.322702740236</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N38" t="n">
-        <v>2758.053686176683</v>
+        <v>3963.708282215619</v>
       </c>
       <c r="O38" t="n">
-        <v>3738.23335274699</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P38" t="n">
-        <v>4566.543227580386</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7211,7 +7213,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1041.416826573035</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C40" t="n">
-        <v>868.8551150562604</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D40" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E40" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F40" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G40" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H40" t="n">
         <v>190.9207894961043</v>
@@ -7360,22 +7362,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2292.381813755403</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U40" t="n">
-        <v>2265.02878318778</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V40" t="n">
-        <v>1978.07327505821</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W40" t="n">
-        <v>1706.046870644502</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X40" t="n">
-        <v>1460.655115977914</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y40" t="n">
-        <v>1233.235445292023</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1630.561454483395</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C41" t="n">
-        <v>1192.418981666818</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>891.7157652480786</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E41" t="n">
-        <v>457.9410204063738</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F41" t="n">
-        <v>457.9410204063738</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>56.54318902963762</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>491.3810871096955</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K41" t="n">
-        <v>870.6928053750404</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L41" t="n">
-        <v>870.6928053750404</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M41" t="n">
-        <v>870.6928053750404</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N41" t="n">
-        <v>870.6928053750404</v>
+        <v>3417.209496257024</v>
       </c>
       <c r="O41" t="n">
-        <v>1565.257001127664</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="P41" t="n">
-        <v>2259.821196880287</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>2806.319982838882</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>2806.319982838882</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>2806.319982838882</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>2443.703032772708</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>2038.847578183741</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2038.847578183741</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>1630.561454483395</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>330.2377696303402</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>330.2377696303402</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1024.801965382963</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1024.801965382963</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1024.801965382963</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1024.801965382963</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1719.366161135586</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1719.366161135586</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>906.6224367337088</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C43" t="n">
-        <v>734.0607252169337</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D43" t="n">
-        <v>568.1827324184565</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E43" t="n">
-        <v>398.4247286691938</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F43" t="n">
-        <v>221.71767463095</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G43" t="n">
-        <v>56.12639965677763</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
-        <v>56.12639965677763</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2651.368188264949</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2651.368188264949</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T43" t="n">
-        <v>2408.667394095348</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U43" t="n">
-        <v>2130.234393348453</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V43" t="n">
-        <v>1843.278885218884</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W43" t="n">
-        <v>1571.252480805175</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X43" t="n">
-        <v>1325.860726138588</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.441055452696</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1329.858238064655</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>891.7157652480786</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>891.7157652480786</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>457.9410204063738</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>457.9410204063738</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
-        <v>56.54318902963762</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>56.54318902963762</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>491.3810871096955</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K44" t="n">
-        <v>491.3810871096955</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L44" t="n">
-        <v>701.5387406219836</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5387406219836</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5387406219836</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.102936374607</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2090.66713212723</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>2637.165918085825</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>2806.319982838882</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>2586.25275571192</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>2586.25275571192</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>2223.635805645747</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2223.635805645747</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>2164.44393224991</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>1756.157808549563</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>562.2981446480704</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>455.8416834847127</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>360.751394631266</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>266.6309799582197</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>183.2471415743813</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>97.86205184056516</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>82.19007281723522</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>406.7483977834476</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1087.481917853825</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1628.2208564859</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1719.366161135586</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1655.910723583969</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1525.732079914571</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1349.395532914539</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1150.278014976539</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>964.9552607097328</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>810.0878249486128</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>683.6020457278336</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>744.2024157797618</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C46" t="n">
-        <v>571.6407042629868</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D46" t="n">
-        <v>405.7627114645095</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E46" t="n">
-        <v>405.7627114645095</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F46" t="n">
-        <v>229.0556574262657</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G46" t="n">
-        <v>229.0556574262657</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7863488821023</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>56.12639965677763</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>142.7060848214675</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>417.4645393926031</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>835.6744211605641</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1295.158288341477</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1737.417091499122</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2157.086340724903</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2504.593234695245</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2672.786009559577</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2651.368188264949</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2492.126819562946</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T46" t="n">
-        <v>2246.247373141401</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U46" t="n">
-        <v>1967.814372394506</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V46" t="n">
-        <v>1680.858864264937</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W46" t="n">
-        <v>1408.832459851228</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X46" t="n">
-        <v>1163.440705184641</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y46" t="n">
-        <v>936.021034498749</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
   </sheetData>
@@ -7976,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7985,19 +7987,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157522</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8052,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,19 +8142,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8213,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8222,16 +8224,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157522</v>
@@ -8289,13 +8291,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8307,10 +8309,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8371,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377813</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8389,7 +8391,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821538</v>
@@ -8450,19 +8452,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -8471,7 +8473,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8534,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8550,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8690,25 +8692,25 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>62.71943809925233</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097206</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097206</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8766,19 +8768,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8787,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.1968875947118</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,25 +8926,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097206</v>
+        <v>251.0005682471274</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932207</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9000,25 +9002,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M15" t="n">
-        <v>505.9401914193695</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>453.4964435270867</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9249,22 +9251,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -9413,10 +9415,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -9653,7 +9655,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9723,13 +9725,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>655.9981329904112</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>-5.468268590953371e-13</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10109,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10130,10 +10132,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10191,25 +10193,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -10355,13 +10357,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1133.488385918382</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
         <v>842.7780726850283</v>
@@ -10592,16 +10594,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>103.979036059106</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10668,16 +10670,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>376.7818457160665</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>363.3683445154879</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>383.1431497629747</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1093.778640932156</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11133,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>276.8801716904672</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>212.2804580932203</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11397,7 +11399,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>153.5231842875514</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23309,13 +23311,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>197.1718905122127</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.85311017352</v>
       </c>
     </row>
     <row r="14">
@@ -23498,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>397.3838530629688</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112165</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800139</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>141.4949547698885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>56.36113619101519</v>
       </c>
       <c r="V16" t="n">
-        <v>11.74903456003636</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>113.876117358763</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24178,7 +24180,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>248.5691704774779</v>
       </c>
       <c r="V25" t="n">
-        <v>120.4463752142719</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>109.39854077914</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>90.92021546249592</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24883,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>122.4480280050055</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>216.2362286424012</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25120,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>52.94985625022238</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25369,10 +25371,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>248.5691704774793</v>
       </c>
       <c r="W37" t="n">
-        <v>102.9863699957348</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25564,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25600,13 +25602,13 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>102.9863699957349</v>
       </c>
       <c r="U40" t="n">
-        <v>248.5691704774792</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>133.8545027227478</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>3.14686572942378</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>122.4480280049939</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -25868,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>356.3510841246039</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26029,19 +26031,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>55.07653710780745</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26077,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>23.6503025715113</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>552472.1889303112</v>
+        <v>540000.6868726439</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>552472.1889303112</v>
+        <v>550569.28889204</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>375752.8466110779</v>
+        <v>567709.0708290348</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>375752.8466110779</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>567709.0708290348</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>567709.0708290348</v>
+        <v>567709.070829035</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>567709.0708290349</v>
+        <v>567709.0708290348</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>567709.0708290349</v>
+        <v>567709.070829035</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>567709.070829035</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>375752.846611078</v>
+        <v>567709.070829035</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>375752.8466110779</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
   </sheetData>
@@ -26314,16 +26316,16 @@
         <v>428917.8559123268</v>
       </c>
       <c r="C2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.8559123267</v>
       </c>
       <c r="D2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.8559123267</v>
       </c>
       <c r="E2" t="n">
-        <v>278971.391750566</v>
+        <v>421486.0673098819</v>
       </c>
       <c r="F2" t="n">
-        <v>278971.391750566</v>
+        <v>421486.067309882</v>
       </c>
       <c r="G2" t="n">
         <v>421486.0673098819</v>
@@ -26338,7 +26340,7 @@
         <v>421486.0673098819</v>
       </c>
       <c r="K2" t="n">
-        <v>421486.0673098819</v>
+        <v>421486.0673098818</v>
       </c>
       <c r="L2" t="n">
         <v>421486.0673098819</v>
@@ -26350,10 +26352,10 @@
         <v>421486.0673098819</v>
       </c>
       <c r="O2" t="n">
-        <v>278971.391750566</v>
+        <v>421486.067309882</v>
       </c>
       <c r="P2" t="n">
-        <v>278971.3917505659</v>
+        <v>421486.0673098819</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501619</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>11527.59554998274</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045623</v>
+        <v>182355.1092210497</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.85463877254</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>9392.301726622292</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340797</v>
+        <v>152200.1709379877</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156636.6412526738</v>
+        <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>156636.6412526738</v>
+        <v>163226.8987932458</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>45008.01073416816</v>
+        <v>68000.69828933269</v>
       </c>
       <c r="F4" t="n">
-        <v>45008.01073416816</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="G4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933277</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933269</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="N4" t="n">
+        <v>68000.69828933277</v>
+      </c>
+      <c r="O4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>68000.69828933279</v>
-      </c>
-      <c r="O4" t="n">
-        <v>45008.0107341682</v>
-      </c>
-      <c r="P4" t="n">
-        <v>45008.0107341682</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>74212.5245617577</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.06373915101</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>77718.23860579252</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-25631.00848614947</v>
+        <v>27472.94086887897</v>
       </c>
       <c r="C6" t="n">
-        <v>198068.6900978953</v>
+        <v>127146.9754160621</v>
       </c>
       <c r="D6" t="n">
-        <v>198068.6900978954</v>
+        <v>186541.0945479125</v>
       </c>
       <c r="E6" t="n">
-        <v>181136.3206767906</v>
+        <v>93412.02119370695</v>
       </c>
       <c r="F6" t="n">
-        <v>191307.3172772469</v>
+        <v>275767.1304147567</v>
       </c>
       <c r="G6" t="n">
-        <v>117707.6534686474</v>
+        <v>275767.1304147566</v>
       </c>
       <c r="H6" t="n">
         <v>275767.1304147566</v>
       </c>
       <c r="I6" t="n">
+        <v>275767.1304147565</v>
+      </c>
+      <c r="J6" t="n">
+        <v>164752.6650697664</v>
+      </c>
+      <c r="K6" t="n">
+        <v>222721.275775984</v>
+      </c>
+      <c r="L6" t="n">
+        <v>266374.8286881343</v>
+      </c>
+      <c r="M6" t="n">
+        <v>123566.9594767689</v>
+      </c>
+      <c r="N6" t="n">
         <v>275767.1304147566</v>
       </c>
-      <c r="J6" t="n">
-        <v>101115.7816970504</v>
-      </c>
-      <c r="K6" t="n">
-        <v>275767.1304147565</v>
-      </c>
-      <c r="L6" t="n">
-        <v>275767.1304147565</v>
-      </c>
-      <c r="M6" t="n">
-        <v>267278.0487114157</v>
-      </c>
-      <c r="N6" t="n">
-        <v>275767.1304147565</v>
-      </c>
       <c r="O6" t="n">
-        <v>191307.3172772468</v>
+        <v>275767.1304147567</v>
       </c>
       <c r="P6" t="n">
-        <v>191307.3172772467</v>
+        <v>275767.1304147566</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097206</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27009,22 +27011,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>37.11037423939331</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186368</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.6805076750247</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939331</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186352</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483593</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>37.11037423939331</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186368</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.6805076750247</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27397,7 +27399,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27432,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>1.126139642529552</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>101.6465624574854</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>145.4676243474039</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>117.7661826744372</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27621,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>174.75285334583</v>
       </c>
       <c r="H5" t="n">
-        <v>215.4845050789323</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,7 +27669,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27783,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27822,22 +27824,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.48338453116378</v>
+        <v>4.066473224050384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>50.45407964317445</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27862,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27919,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>50.45407964317468</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28068,13 +28070,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>222.8531101735157</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>117.7661826744371</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,28 +28089,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28140,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -28272,7 +28274,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>-1.943801733329479e-12</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -28342,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-4.553256844393525e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28377,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>-2.899033159328081e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -28615,7 +28617,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>-5.184051496649331e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -34696,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>439.6511994473918</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34705,19 +34707,19 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>667.515206607857</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="Q2" t="n">
-        <v>552.0189757157523</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>667.515206607857</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34856,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>296.5687363523682</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="N4" t="n">
-        <v>446.7260637956006</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>351.017064616507</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34933,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34942,16 +34944,16 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="N5" t="n">
-        <v>667.515206607857</v>
+        <v>72.80589558611109</v>
       </c>
       <c r="O5" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>667.515206607857</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
         <v>552.0189757157523</v>
@@ -35009,13 +35011,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684636</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35027,10 +35029,10 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>347.9676668794094</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>30.9144066474189</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>277.5337924960966</v>
+        <v>218.0459320377813</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
         <v>446.7260637956006</v>
@@ -35109,7 +35111,7 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165066</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
         <v>169.8916917821539</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -35191,7 +35193,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>469.682203560008</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35254,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35270,7 +35272,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35410,28 +35412,28 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>62.71943809925233</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>701.5799957097206</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M11" t="n">
-        <v>701.5799957097206</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,19 +35488,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35507,7 +35509,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>132.1968875947118</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>277.5337924960946</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645538</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>701.5799957097206</v>
+        <v>251.0005682471274</v>
       </c>
       <c r="O14" t="n">
-        <v>212.2804580932207</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>655.9981329904112</v>
       </c>
       <c r="M15" t="n">
-        <v>505.9401914193695</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>701.5799957097206</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1024.042030119497</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,7 +35819,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>60.59188538505214</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>453.4964435270867</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35971,22 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N18" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>315.3936483072348</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36123,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
@@ -36130,13 +36132,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
         <v>1168.735187081365</v>
@@ -36373,7 +36375,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36443,13 +36445,13 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>655.9981329904112</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>-1.841590164177459e-13</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
         <v>661.3192390158824</v>
       </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36829,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>928.8008214318188</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -36850,10 +36852,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>305.8360165328637</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37010,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821452</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37075,13 +37077,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1133.488385918382</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458546</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37303,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>103.979036059106</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M36" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>469.2069973599082</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>376.7818457160665</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>363.3683445154879</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>383.1431497629747</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>1093.778640932156</v>
       </c>
       <c r="O41" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>276.8801716904672</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -37874,13 +37876,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>212.2804580932203</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38117,7 +38119,7 @@
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>92.06596429261208</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_32.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1605839.477985512</v>
+        <v>1605314.29561648</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916865</v>
+        <v>278692.0725916856</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>424.2958575201043</v>
+        <v>177.1642154582186</v>
       </c>
       <c r="D2" t="n">
         <v>31.5506869772999</v>
@@ -670,13 +670,13 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -715,16 +715,16 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>299.1603375855916</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>25.3684700542034</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>27.65988655420104</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -837,7 +837,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>203.5980875617439</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>222.6309997171388</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>239.3541787332789</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>166.831657401176</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>431.5506869772999</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>353.7491828201684</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
         <v>168.0604237117701</v>
@@ -1350,10 +1350,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>61.23284287475814</v>
+        <v>166.3197703738368</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
@@ -1372,25 +1372,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773004</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629688</v>
+        <v>397.3838530629683</v>
       </c>
       <c r="H11" t="n">
-        <v>286.238853011216</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0.41262147913147</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1429,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1548,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>157.6489550149833</v>
@@ -1590,13 +1590,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>155.4300230108086</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>2.292363805512852</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D14" t="n">
         <v>431.5506869772999</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1785,7 +1785,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1821,19 +1821,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>219.2875345484105</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>128.5829343862819</v>
       </c>
     </row>
     <row r="17">
@@ -1855,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.588755294885</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -2019,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2092,13 +2092,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011217</v>
       </c>
       <c r="I20" t="n">
         <v>0.4126214791313976</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>27.0795002619478</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2730,7 +2730,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2763,22 +2763,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>193.1657375857779</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
-        <v>242.9378371199217</v>
+        <v>131.5141848153389</v>
       </c>
       <c r="Y28" t="n">
         <v>225.1454739790328</v>
@@ -2967,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,13 +3000,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
-        <v>153.2006427344203</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
@@ -3204,7 +3204,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>104.6990987647609</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3255,7 +3255,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884118</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
         <v>431.5506869772999</v>
@@ -3280,7 +3280,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H35" t="n">
         <v>286.2388530112159</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>22.28534392848035</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3483,7 +3483,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>35.5167825707945</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3681,7 +3681,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,16 +3714,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>140.4342819615944</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>245.65583779806</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3751,7 +3751,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
         <v>397.3838530629687</v>
@@ -3796,7 +3796,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561544</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>13.99728392830417</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>146.8581123645739</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
         <v>242.9378371199217</v>
@@ -4152,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>260.4356504767625</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
         <v>269.3061403695714</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>949.3539213779165</v>
+        <v>991.498727323736</v>
       </c>
       <c r="C2" t="n">
-        <v>520.7722471151849</v>
+        <v>812.5449743356364</v>
       </c>
       <c r="D2" t="n">
-        <v>488.9028663300335</v>
+        <v>780.675593550485</v>
       </c>
       <c r="E2" t="n">
-        <v>459.1685255287327</v>
+        <v>750.9412527491843</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>323.0738231583921</v>
       </c>
       <c r="H2" t="n">
         <v>33.94366860160834</v>
@@ -4333,16 +4333,16 @@
         <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="O2" t="n">
         <v>687.9235674375537</v>
@@ -4363,19 +4363,19 @@
         <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="W2" t="n">
-        <v>1395.001270903052</v>
+        <v>1437.146076848872</v>
       </c>
       <c r="X2" t="n">
-        <v>975.8588074823629</v>
+        <v>1422.044017468586</v>
       </c>
       <c r="Y2" t="n">
-        <v>971.6130878224203</v>
+        <v>1417.798297808644</v>
       </c>
     </row>
     <row r="3">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>966.0648349231828</v>
+        <v>886.4031665373657</v>
       </c>
       <c r="C4" t="n">
-        <v>940.4401176967148</v>
+        <v>713.8414550205906</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>685.9021756729128</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>516.14417192365</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>339.4371178854062</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>173.8458429112338</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
@@ -4491,19 +4491,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>540.5762527112014</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>960.6291516561047</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>1380.298400881886</v>
       </c>
       <c r="P4" t="n">
         <v>1528.990655216085</v>
@@ -4512,28 +4512,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U4" t="n">
-        <v>1238.091239336891</v>
+        <v>1418.750429333523</v>
       </c>
       <c r="V4" t="n">
-        <v>1238.091239336891</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="W4" t="n">
-        <v>966.0648349231828</v>
+        <v>1131.794921203953</v>
       </c>
       <c r="X4" t="n">
-        <v>966.0648349231828</v>
+        <v>886.4031665373657</v>
       </c>
       <c r="Y4" t="n">
-        <v>966.0648349231828</v>
+        <v>886.4031665373657</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1896.513156247426</v>
+        <v>341.5177676270689</v>
       </c>
       <c r="C5" t="n">
-        <v>1458.370683430849</v>
+        <v>135.8631337263175</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.460898605293</v>
+        <v>103.9937529411661</v>
       </c>
       <c r="E5" t="n">
-        <v>992.7265578039926</v>
+        <v>74.25941213986533</v>
       </c>
       <c r="F5" t="n">
-        <v>564.8591282132004</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="G5" t="n">
-        <v>339.9793305191208</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="H5" t="n">
-        <v>50.84917596233709</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947709</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>674.5331706342566</v>
       </c>
       <c r="L5" t="n">
-        <v>485.687074042395</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="M5" t="n">
-        <v>1109.787858087174</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="N5" t="n">
-        <v>1181.865694717424</v>
+        <v>1298.633954679036</v>
       </c>
       <c r="O5" t="n">
-        <v>1181.865694717424</v>
+        <v>1922.734738723815</v>
       </c>
       <c r="P5" t="n">
-        <v>1805.966478762203</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="Q5" t="n">
-        <v>2352.465264720798</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473855</v>
+        <v>2437.967455657693</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346893</v>
+        <v>2217.900228530732</v>
       </c>
       <c r="U5" t="n">
-        <v>2301.552102346893</v>
+        <v>1958.677925847749</v>
       </c>
       <c r="V5" t="n">
-        <v>1938.93515228072</v>
+        <v>1596.060975781575</v>
       </c>
       <c r="W5" t="n">
-        <v>1938.120101732157</v>
+        <v>1191.205521192609</v>
       </c>
       <c r="X5" t="n">
-        <v>1923.018042351872</v>
+        <v>772.0630577719193</v>
       </c>
       <c r="Y5" t="n">
-        <v>1918.772322691929</v>
+        <v>767.8173381119767</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807698</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174121</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639654</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909191</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070807</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326461</v>
+        <v>92.16803877326466</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947709</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993469</v>
+        <v>76.49605974993473</v>
       </c>
       <c r="J6" t="n">
         <v>401.054384716147</v>
@@ -4652,16 +4652,16 @@
         <v>1025.155168760926</v>
       </c>
       <c r="L6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1025.155168760926</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
         <v>1055.760431341871</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424322</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813122</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.908032660533</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4701,73 +4701,73 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1129.490547201358</v>
+        <v>1129.490547201359</v>
       </c>
       <c r="C7" t="n">
-        <v>956.9288356845833</v>
+        <v>956.9288356845835</v>
       </c>
       <c r="D7" t="n">
-        <v>791.050842886106</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368433</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
         <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244272</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148017</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947709</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="J7" t="n">
-        <v>50.43238658947709</v>
+        <v>50.43238658947713</v>
       </c>
       <c r="K7" t="n">
-        <v>266.2978593068805</v>
+        <v>325.1908411606127</v>
       </c>
       <c r="L7" t="n">
-        <v>684.5077410748416</v>
+        <v>743.4007229285737</v>
       </c>
       <c r="M7" t="n">
-        <v>1143.991608255754</v>
+        <v>1202.884590109487</v>
       </c>
       <c r="N7" t="n">
-        <v>1586.250411413399</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639181</v>
+        <v>2064.812642492913</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2412.319536463255</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179226</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477223</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="T7" t="n">
-        <v>2099.18824176684</v>
+        <v>2521.619329473856</v>
       </c>
       <c r="U7" t="n">
-        <v>1820.755241019946</v>
+        <v>2353.102503816103</v>
       </c>
       <c r="V7" t="n">
-        <v>1820.755241019946</v>
+        <v>2066.146995686534</v>
       </c>
       <c r="W7" t="n">
-        <v>1548.728836606237</v>
+        <v>1794.120591272825</v>
       </c>
       <c r="X7" t="n">
-        <v>1548.728836606237</v>
+        <v>1548.728836606238</v>
       </c>
       <c r="Y7" t="n">
         <v>1321.309165920346</v>
@@ -4780,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1786.86986531245</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1348.727392495873</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>912.8176076703178</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>479.0428628286129</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>455.2158372782247</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>714.2412710704069</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>714.2412710704069</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M8" t="n">
-        <v>1375.081325612185</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N8" t="n">
-        <v>2035.921380153963</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O8" t="n">
-        <v>2035.921380153963</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P8" t="n">
-        <v>2035.921380153963</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2586.408952615265</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2586.408952615265</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2585.593902066702</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2570.491842686417</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>2213.169435797358</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4886,19 +4886,19 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>966.5813843420327</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>794.0196728252577</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
         <v>794.0196728252577</v>
@@ -4998,16 +4998,16 @@
         <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1903.237832827208</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="W10" t="n">
-        <v>1631.211428413499</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1385.819673746912</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1158.40000306102</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
         <v>1654.847790009657</v>
@@ -5032,10 +5032,10 @@
         <v>793.2056155771597</v>
       </c>
       <c r="G11" t="n">
-        <v>391.8077842004235</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>102.6776296436397</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
         <v>102.2608402707796</v>
@@ -5047,43 +5047,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P11" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
         <v>2955.199618136697</v>
@@ -5117,25 +5117,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J12" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M12" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N12" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="O12" t="n">
-        <v>1107.588885023173</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="P12" t="n">
         <v>1107.588885023173</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1015.441008084184</v>
+        <v>926.781058858859</v>
       </c>
       <c r="C13" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="D13" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E13" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F13" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I13" t="n">
         <v>102.2608402707796</v>
@@ -5208,43 +5208,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955474</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113119</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.2207813389</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309242</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2697.502628878947</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2538.261260176943</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2292.381813755399</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2013.948813008504</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1726.993304878934</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1454.966900465226</v>
+        <v>1591.411102930325</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.575145798638</v>
+        <v>1346.019348263738</v>
       </c>
       <c r="Y13" t="n">
-        <v>1207.259626803171</v>
+        <v>1118.599677577846</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C14" t="n">
         <v>2090.757574835212</v>
@@ -5278,22 +5278,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M14" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N14" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
         <v>4397.38916282733</v>
@@ -5320,10 +5320,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X14" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y14" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="15">
@@ -5354,31 +5354,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
         <v>1765.500601749588</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C16" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D16" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E16" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F16" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G16" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5439,49 +5439,49 @@
         <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066092</v>
       </c>
       <c r="L16" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745702</v>
       </c>
       <c r="M16" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955483</v>
       </c>
       <c r="N16" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113128</v>
       </c>
       <c r="O16" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.22078133891</v>
       </c>
       <c r="P16" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q16" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="R16" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173584</v>
       </c>
       <c r="S16" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.67908147158</v>
       </c>
       <c r="T16" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050035</v>
       </c>
       <c r="U16" t="n">
-        <v>2070.879253605493</v>
+        <v>2035.36663430314</v>
       </c>
       <c r="V16" t="n">
-        <v>1783.923745475924</v>
+        <v>1748.411126173571</v>
       </c>
       <c r="W16" t="n">
-        <v>1511.897341062215</v>
+        <v>1748.411126173571</v>
       </c>
       <c r="X16" t="n">
-        <v>1511.897341062215</v>
+        <v>1503.019371506983</v>
       </c>
       <c r="Y16" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
         <v>1654.847790009657</v>
@@ -5503,13 +5503,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H17" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I17" t="n">
         <v>102.2608402707796</v>
@@ -5521,43 +5521,43 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1431.851786213077</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P17" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W17" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136697</v>
@@ -5591,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5700,25 +5700,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5740,10 +5740,10 @@
         <v>1221.073045167953</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004245</v>
       </c>
       <c r="H20" t="n">
         <v>102.6776296436396</v>
@@ -5752,28 +5752,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>2334.36864173419</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
         <v>5113.042013538981</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2683.3639582443</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3435.538389938438</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>3262.976678421663</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>3097.098685623185</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>2927.340681873923</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>2750.633627835679</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>4659.150346553181</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>4372.194838423612</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>4100.168434009904</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>3854.776679343317</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>3627.357008657425</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C27" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D27" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E27" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F27" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G27" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H27" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>3800.424250186843</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S27" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T27" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U27" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V27" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W27" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X27" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y27" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1041.416826573035</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>868.8551150562604</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>702.9771222577831</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>533.2191185085204</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>356.5120644702766</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>190.9207894961043</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6411,25 +6411,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T28" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2173.190181710511</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V28" t="n">
-        <v>1978.07327505821</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W28" t="n">
-        <v>1706.046870644502</v>
+        <v>1733.399901212125</v>
       </c>
       <c r="X28" t="n">
-        <v>1460.655115977914</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1233.235445292023</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6466,19 +6466,19 @@
         <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1612.575493976557</v>
       </c>
       <c r="M29" t="n">
-        <v>2588.899621423627</v>
+        <v>2769.623329187108</v>
       </c>
       <c r="N29" t="n">
-        <v>2588.899621423627</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="O29" t="n">
-        <v>3569.079287993933</v>
+        <v>3895.354312623555</v>
       </c>
       <c r="P29" t="n">
         <v>4397.38916282733</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>405.0384966383147</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1224.761663117513</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6642,31 +6642,31 @@
         <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173571</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173571</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2559.679081471567</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2559.679081471567</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2404.930957497405</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K32" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688178</v>
       </c>
       <c r="L32" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321677</v>
       </c>
       <c r="M32" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532228</v>
       </c>
       <c r="N32" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968675</v>
       </c>
       <c r="O32" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P32" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q32" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2613.163784754629</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2367.284338333084</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.851337586189</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1801.895829456619</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1529.869425042911</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1284.477670376323</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004234</v>
@@ -6946,7 +6946,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2588.899621423628</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N35" t="n">
         <v>2588.899621423628</v>
@@ -6982,7 +6982,7 @@
         <v>3363.485741837044</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="36">
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1041.416826573035</v>
+        <v>949.5782250957704</v>
       </c>
       <c r="C37" t="n">
-        <v>868.8551150562604</v>
+        <v>777.0165135789954</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577831</v>
+        <v>611.1385207805181</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085204</v>
+        <v>441.3805170312554</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>264.6734629930115</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7113,34 +7113,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309251</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173583</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2697.502628878955</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2451.62318245741</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2173.190181710515</v>
       </c>
       <c r="V37" t="n">
-        <v>1978.07327505821</v>
+        <v>1886.234673580945</v>
       </c>
       <c r="W37" t="n">
-        <v>1706.046870644502</v>
+        <v>1614.208269167237</v>
       </c>
       <c r="X37" t="n">
-        <v>1460.655115977914</v>
+        <v>1368.816514500649</v>
       </c>
       <c r="Y37" t="n">
-        <v>1233.235445292023</v>
+        <v>1141.396843814758</v>
       </c>
     </row>
     <row r="38">
@@ -7162,13 +7162,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
@@ -7183,22 +7183,22 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3603.973621145286</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N38" t="n">
-        <v>3963.708282215619</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O38" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P38" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7219,7 +7219,7 @@
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="39">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7362,22 +7362,22 @@
         <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
-        <v>2396.408450114731</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U40" t="n">
-        <v>2117.975449367836</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>2005.426305625833</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
         <v>793.2056155771595</v>
@@ -7411,22 +7411,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>3417.209496257024</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4397.38916282733</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
         <v>4397.38916282733</v>
@@ -7444,19 +7444,19 @@
         <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="42">
@@ -7593,19 +7593,19 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="T43" t="n">
-        <v>2559.679081471576</v>
+        <v>2683.3639582443</v>
       </c>
       <c r="U43" t="n">
-        <v>2281.246080724681</v>
+        <v>2404.930957497405</v>
       </c>
       <c r="V43" t="n">
-        <v>1994.290572595111</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W43" t="n">
         <v>1845.949044954127</v>
@@ -7648,28 +7648,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>306.120802776629</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>306.120802776629</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.16863798718</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R44" t="n">
         <v>5113.04201353898</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
         <v>102.2608402707796</v>
@@ -7830,28 +7830,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U46" t="n">
-        <v>2292.381813755403</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W46" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -8139,22 +8139,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821538</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611109</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>604.9339300505467</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8297,10 +8297,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684636</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.9144066474189</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
@@ -8376,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377813</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
@@ -8394,7 +8394,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238402</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8534,22 +8534,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8695,10 +8695,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8765,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8783,10 +8783,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8935,16 +8935,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>251.0005682471274</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9169,10 +9169,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10114,22 +10114,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157522</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458549</v>
+        <v>-5.468268590953371e-13</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10594,10 +10594,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,16 +10661,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,19 +10831,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>363.3683445154879</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11059,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1093.778640932156</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11317,10 +11317,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.8761173587628</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.85311017352</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>56.36113619101519</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X16" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>96.56253959275091</v>
       </c>
     </row>
     <row r="17">
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>248.5691704774779</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,22 +24651,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>90.92021546249592</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>111.4236523045828</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,13 +24888,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>122.4480280050055</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25125,7 +25125,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>52.94985625022238</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>141.6500182959502</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>248.5691704774793</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,16 +25602,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>102.9863699957349</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>23.65030257151142</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>143.6516710866791</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>122.4480280049939</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>23.6503025715113</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>567709.0708290349</v>
+        <v>567709.070829035</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>567709.070829035</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>567709.0708290349</v>
+        <v>567709.070829035</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>567709.0708290348</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>567709.070829035</v>
+        <v>567709.0708290349</v>
       </c>
     </row>
     <row r="16">
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>428917.8559123268</v>
+        <v>428917.8559123269</v>
       </c>
       <c r="C2" t="n">
         <v>428917.8559123267</v>
       </c>
       <c r="D2" t="n">
-        <v>428917.8559123267</v>
+        <v>428917.8559123268</v>
       </c>
       <c r="E2" t="n">
         <v>421486.0673098819</v>
@@ -26337,10 +26337,10 @@
         <v>421486.0673098819</v>
       </c>
       <c r="J2" t="n">
+        <v>421486.0673098818</v>
+      </c>
+      <c r="K2" t="n">
         <v>421486.0673098819</v>
-      </c>
-      <c r="K2" t="n">
-        <v>421486.0673098818</v>
       </c>
       <c r="L2" t="n">
         <v>421486.0673098819</v>
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501619</v>
+        <v>66587.76789501635</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998274</v>
+        <v>11527.59554998259</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210497</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.85463877254</v>
+        <v>53045.85463877266</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622292</v>
+        <v>9392.30172662217</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379877</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>199828.8262465156</v>
       </c>
       <c r="C4" t="n">
-        <v>163226.8987932458</v>
+        <v>163226.8987932457</v>
       </c>
       <c r="D4" t="n">
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>68000.69828933269</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="F4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="G4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="G4" t="n">
-        <v>68000.69828933279</v>
       </c>
       <c r="H4" t="n">
         <v>68000.69828933277</v>
       </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933269</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933277</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="P4" t="n">
         <v>68000.69828933281</v>
-      </c>
-      <c r="P4" t="n">
-        <v>68000.69828933279</v>
       </c>
     </row>
     <row r="5">
@@ -26472,13 +26472,13 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800262</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="F5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>27472.94086887897</v>
+        <v>27472.94086887901</v>
       </c>
       <c r="C6" t="n">
-        <v>127146.9754160621</v>
+        <v>127146.975416062</v>
       </c>
       <c r="D6" t="n">
-        <v>186541.0945479125</v>
+        <v>186541.0945479127</v>
       </c>
       <c r="E6" t="n">
-        <v>93412.02119370695</v>
+        <v>93388.79685432422</v>
       </c>
       <c r="F6" t="n">
-        <v>275767.1304147567</v>
+        <v>275743.9060753739</v>
       </c>
       <c r="G6" t="n">
-        <v>275767.1304147566</v>
+        <v>275743.9060753739</v>
       </c>
       <c r="H6" t="n">
-        <v>275767.1304147566</v>
+        <v>275743.9060753739</v>
       </c>
       <c r="I6" t="n">
-        <v>275767.1304147565</v>
+        <v>275743.9060753739</v>
       </c>
       <c r="J6" t="n">
-        <v>164752.6650697664</v>
+        <v>164729.4407303836</v>
       </c>
       <c r="K6" t="n">
-        <v>222721.275775984</v>
+        <v>222698.0514366013</v>
       </c>
       <c r="L6" t="n">
-        <v>266374.8286881343</v>
+        <v>266351.6043487518</v>
       </c>
       <c r="M6" t="n">
-        <v>123566.9594767689</v>
+        <v>123543.7351373863</v>
       </c>
       <c r="N6" t="n">
-        <v>275767.1304147566</v>
+        <v>275743.9060753739</v>
       </c>
       <c r="O6" t="n">
-        <v>275767.1304147567</v>
+        <v>275743.9060753739</v>
       </c>
       <c r="P6" t="n">
-        <v>275767.1304147566</v>
+        <v>275743.9060753739</v>
       </c>
     </row>
   </sheetData>
@@ -26792,7 +26792,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684636</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483593</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939331</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483593</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939331</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483593</v>
+        <v>206.1089748483598</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939331</v>
+        <v>37.11037423939283</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.465190568306582</v>
+        <v>256.5968326301924</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
@@ -27390,13 +27390,13 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -27435,16 +27435,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>101.6465624574854</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27539,10 +27539,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>145.4676243474039</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>136.5593263162915</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -27596,13 +27596,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>230.1629605266671</v>
+      </c>
+      <c r="D5" t="n">
         <v>400</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.75285334583</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>4.066473224050384</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.8170133382497</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>50.45407964317468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>222.8531101735157</v>
+        <v>117.766182674437</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28511,7 +28511,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -30000,7 +30000,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.13686837721616e-12</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30185,7 +30185,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>3.770613451100265e-12</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -34701,7 +34701,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34713,7 +34713,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>424.2958575201044</v>
@@ -34859,22 +34859,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>150.1941962971705</v>
       </c>
       <c r="Q4" t="n">
         <v>169.8916917821539</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="M5" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>72.80589558611109</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.404832368464</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>604.9339300505467</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,16 +35011,16 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K6" t="n">
-        <v>630.4048323684636</v>
+        <v>630.4048323684641</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.91440664741845</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35032,13 +35032,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>30.9144066474189</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,10 +35096,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>218.0459320377813</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35111,10 +35111,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238402</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M8" t="n">
-        <v>667.5152066078568</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>667.5152066078567</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>469.682203560008</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35415,10 +35415,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>187.4796750234296</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35576,13 +35576,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645538</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35646,25 +35646,25 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>251.0005682471274</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O14" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -35740,16 +35740,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35807,19 +35807,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924961008</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35889,10 +35889,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>60.59188538505214</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36530,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36691,10 +36691,10 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
         <v>118.3563415094341</v>
@@ -36834,22 +36834,22 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081364</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>507.1059092967421</v>
       </c>
       <c r="Q29" t="n">
         <v>552.0189757157523</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>305.8360165328637</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36928,13 +36928,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37010,7 +37010,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821452</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N32" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>836.6766412458546</v>
+        <v>-1.841590164177459e-13</v>
       </c>
       <c r="Q32" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37314,10 +37314,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>143.4079146352456</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -37399,16 +37399,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37481,7 +37481,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165107</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37551,19 +37551,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N38" t="n">
-        <v>363.3683445154879</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37779,25 +37779,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1093.778640932156</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>205.9191540463125</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38037,10 +38037,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
